--- a/docs/StructureDefinition-LTCQuestionnaire.xlsx
+++ b/docs/StructureDefinition-LTCQuestionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:20:15+08:00</t>
+    <t>2024-10-22T01:35:37+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1035,7 +1035,7 @@
     <t>This ''can'' be a meaningful identifier (e.g. a LOINC code) but is not intended to have any meaning.  GUIDs or sequential numbers are appropriate here.</t>
   </si>
   <si>
-    <t>[QuestionnaireResponse](questionnaireresponse.html#) does not require omitted items to be included and may have some items that repeat, so linkage based on position alone is not sufficient.</t>
+    <t>[QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html#) does not require omitted items to be included and may have some items that repeat, so linkage based on position alone is not sufficient.</t>
   </si>
   <si>
     <t>.id</t>
@@ -1057,7 +1057,7 @@
 * options (ElementDefinition.binding).</t>
   </si>
   <si>
-    <t>The uri refers to an ElementDefinition in a [StructureDefinition](structuredefinition.html#) and always starts with the [canonical URL](http://hl7.org/fhir/R4/references.html#canonical) for the target resource. When referring to a StructureDefinition, a fragment identifier is used to specify the element definition by its id [Element.id](http://hl7.org/fhir/R4/element-definitions.html#Element.id). E.g. http://hl7.org/fhir/StructureDefinition/Observation#Observation.value[x]. In the absence of a fragment identifier, the first/root element definition in the target is the matching element definition.</t>
+    <t>The uri refers to an ElementDefinition in a [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) and always starts with the [canonical URL](http://hl7.org/fhir/R4/references.html#canonical) for the target resource. When referring to a StructureDefinition, a fragment identifier is used to specify the element definition by its id [Element.id](http://hl7.org/fhir/R4/element-definitions.html#Element.id). E.g. http://hl7.org/fhir/StructureDefinition/Observation#Observation.value[x]. In the absence of a fragment identifier, the first/root element definition in the target is the matching element definition.</t>
   </si>
   <si>
     <t>A common pattern is to define a set of data elements and then build multiple questionnaires for different circumstances to gather the data. This element provides traceability to the common definition and allows the content for the question to come from the underlying definition.</t>

--- a/docs/StructureDefinition-LTCQuestionnaire.xlsx
+++ b/docs/StructureDefinition-LTCQuestionnaire.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>TWLTC Questionnaire</t>
+    <t>長期照顧－問卷</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T01:35:37+08:00</t>
+    <t>2024-10-23T00:37:08+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>問卷，用以表述長期照顧情境中涉及之問卷或量表內容。</t>
+    <t>此 Profile 說明本 IG 如何進一步定義 FHIR 的 Questionnaire Resource，以呈現長期照顧情境中涉及之問卷或量表內容。</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-LTCQuestionnaire.xlsx
+++ b/docs/StructureDefinition-LTCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCQuestionnaire.xlsx
+++ b/docs/StructureDefinition-LTCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1778,17 +1778,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.16796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.16796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.50390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.50390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.89453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.40625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1797,27 +1797,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="86.3125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.6953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.5390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.42578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.1640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="125.9375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="48.05859375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="108.5625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="38.6328125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="22.43359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCQuestionnaire.xlsx
+++ b/docs/StructureDefinition-LTCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCQuestionnaire.xlsx
+++ b/docs/StructureDefinition-LTCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCQuestionnaire.xlsx
+++ b/docs/StructureDefinition-LTCQuestionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1778,17 +1778,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.50390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.50390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.15234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.15234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.40625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.92578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1797,27 +1797,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="75.42578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.1640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.99609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.17578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="108.5625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="38.6328125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="22.43359375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="107.96875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="41.19921875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="24.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCQuestionnaire.xlsx
+++ b/docs/StructureDefinition-LTCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCQuestionnaire.xlsx
+++ b/docs/StructureDefinition-LTCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCQuestionnaire.xlsx
+++ b/docs/StructureDefinition-LTCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCQuestionnaire.xlsx
+++ b/docs/StructureDefinition-LTCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T04:22:03+08:00</t>
+    <t>2025-09-15T15:24:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -365,7 +365,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -583,7 +583,7 @@
     <t>Questionnaire.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(Questionnaire)
+    <t xml:space="preserve">canonical(Questionnaire|4.0.1)
 </t>
   </si>
   <si>
@@ -816,7 +816,7 @@
     <t>Countries and regions within which this artifact is targeted for use.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
+    <t>http://hl7.org/fhir/ValueSet/jurisdiction|4.0.1</t>
   </si>
   <si>
     <t>Definition.jurisdiction</t>
@@ -949,7 +949,7 @@
     <t>Codes for questionnaires, groups and individual questions.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-questions</t>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-questions|4.0.1</t>
   </si>
   <si>
     <t>.code</t>
@@ -1198,7 +1198,7 @@
   </si>
   <si>
     <t>boolean
-decimalintegerdatedateTimetimestringCodingQuantityReference(Resource)</t>
+decimalintegerdatedateTimetimestringCodingQuantityReference(Resource|4.0.1)</t>
   </si>
   <si>
     <t>Value for question comparison based on operator</t>
@@ -1210,7 +1210,7 @@
     <t>Allowed values to answer questions.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers</t>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">que-7
@@ -1317,7 +1317,7 @@
     <t>Questionnaire.item.answerValueSet</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(ValueSet)
+    <t xml:space="preserve">canonical(ValueSet|4.0.1)
 </t>
   </si>
   <si>
@@ -1359,7 +1359,7 @@
   </si>
   <si>
     <t>integer
-datetimestringCodingReference(Resource)</t>
+datetimestringCodingReference(Resource|4.0.1)</t>
   </si>
   <si>
     <t>Answer value</t>
@@ -1418,7 +1418,7 @@
   </si>
   <si>
     <t>boolean
-decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource)</t>
+decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource|4.0.1)</t>
   </si>
   <si>
     <t>預設值。[應填入預設值]</t>
@@ -1788,7 +1788,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.92578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-LTCQuestionnaire.xlsx
+++ b/docs/StructureDefinition-LTCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCQuestionnaire.xlsx
+++ b/docs/StructureDefinition-LTCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCQuestionnaire.xlsx
+++ b/docs/StructureDefinition-LTCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
